--- a/ams/cases/ieee123/ieee123_regcv1.xlsx
+++ b/ams/cases/ieee123/ieee123_regcv1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/Documents/work/ams/ams/cases/ieee123/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DAB8523-BB6D-3342-A061-39F58B460EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B51E32B-1817-8240-9770-103061017F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19200" windowHeight="21100" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19200" windowHeight="21100" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="16" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Slack" sheetId="4" r:id="rId5"/>
     <sheet name="Line" sheetId="5" r:id="rId6"/>
     <sheet name="GCost" sheetId="14" r:id="rId7"/>
-    <sheet name="PFRCost" sheetId="15" r:id="rId8"/>
+    <sheet name="REGCV1Cost" sheetId="15" r:id="rId8"/>
     <sheet name="REGCV1" sheetId="17" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -19918,8 +19918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30096DF9-AE9D-C146-865B-1CF57605739C}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -20141,7 +20141,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{419D3FAE-44DF-2C46-8059-BFA4F80E21D4}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>

--- a/ams/cases/ieee123/ieee123_regcv1.xlsx
+++ b/ams/cases/ieee123/ieee123_regcv1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/Documents/work/ams/ams/cases/ieee123/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B51E32B-1817-8240-9770-103061017F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6D21D3-4F0C-0841-84BB-791F8540B5AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19200" windowHeight="21100" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19200" windowHeight="21100" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="16" r:id="rId1"/>
@@ -19551,8 +19551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6D71AA9-7122-4644-932B-DB8CEB0A118F}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -19696,7 +19696,7 @@
         <v>565</v>
       </c>
       <c r="G5" s="3">
-        <v>0</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="H5" s="3">
         <v>0</v>
@@ -19725,7 +19725,7 @@
         <v>565</v>
       </c>
       <c r="G6" s="3">
-        <v>0</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="H6" s="3">
         <v>0</v>
@@ -19754,7 +19754,7 @@
         <v>565</v>
       </c>
       <c r="G7" s="3">
-        <v>0</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="H7" s="3">
         <v>0</v>
@@ -19783,7 +19783,7 @@
         <v>565</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
@@ -19812,7 +19812,7 @@
         <v>565</v>
       </c>
       <c r="G9" s="3">
-        <v>0</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
@@ -19841,7 +19841,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="3">
-        <v>0</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="H10" s="3">
         <v>0</v>
@@ -19870,7 +19870,7 @@
         <v>565</v>
       </c>
       <c r="G11" s="3">
-        <v>0</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="H11" s="3">
         <v>0</v>
@@ -19899,7 +19899,7 @@
         <v>565</v>
       </c>
       <c r="G12" s="3">
-        <v>0</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="H12" s="3">
         <v>0</v>
@@ -19918,7 +19918,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30096DF9-AE9D-C146-865B-1CF57605739C}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
+    <sheetView zoomScale="117" workbookViewId="0">
       <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>

--- a/ams/cases/ieee123/ieee123_regcv1.xlsx
+++ b/ams/cases/ieee123/ieee123_regcv1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/Documents/work/ams/ams/cases/ieee123/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6D21D3-4F0C-0841-84BB-791F8540B5AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C7C56B-203F-1444-9A71-A659D1B16ACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19200" windowHeight="21100" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19200" windowHeight="21100" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="16" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Slack" sheetId="4" r:id="rId5"/>
     <sheet name="Line" sheetId="5" r:id="rId6"/>
     <sheet name="GCost" sheetId="14" r:id="rId7"/>
-    <sheet name="REGCV1Cost" sheetId="15" r:id="rId8"/>
+    <sheet name="VSGCost" sheetId="15" r:id="rId8"/>
     <sheet name="REGCV1" sheetId="17" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="641">
   <si>
     <t>idx</t>
   </si>
@@ -1918,28 +1918,52 @@
     <t>cd</t>
   </si>
   <si>
-    <t>PFC_1</t>
-  </si>
-  <si>
-    <t>PFC_2</t>
-  </si>
-  <si>
-    <t>PFC_3</t>
-  </si>
-  <si>
-    <t>PFC_4</t>
-  </si>
-  <si>
-    <t>PFC_5</t>
-  </si>
-  <si>
-    <t>PFC_6</t>
-  </si>
-  <si>
-    <t>PFC_7</t>
-  </si>
-  <si>
-    <t>PFC_8</t>
+    <t>VSGCost_1</t>
+  </si>
+  <si>
+    <t>VSGCost_2</t>
+  </si>
+  <si>
+    <t>VSGCost_3</t>
+  </si>
+  <si>
+    <t>VSGCost_4</t>
+  </si>
+  <si>
+    <t>VSGCost_5</t>
+  </si>
+  <si>
+    <t>VSGCost_6</t>
+  </si>
+  <si>
+    <t>VSGCost_7</t>
+  </si>
+  <si>
+    <t>VSGCost_8</t>
+  </si>
+  <si>
+    <t>VSGCost 1</t>
+  </si>
+  <si>
+    <t>VSGCost 2</t>
+  </si>
+  <si>
+    <t>VSGCost 3</t>
+  </si>
+  <si>
+    <t>VSGCost 4</t>
+  </si>
+  <si>
+    <t>VSGCost 5</t>
+  </si>
+  <si>
+    <t>VSGCost 6</t>
+  </si>
+  <si>
+    <t>VSGCost 7</t>
+  </si>
+  <si>
+    <t>VSGCost 8</t>
   </si>
 </sst>
 </file>
@@ -19551,7 +19575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6D71AA9-7122-4644-932B-DB8CEB0A118F}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -19918,8 +19942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30096DF9-AE9D-C146-865B-1CF57605739C}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -19951,14 +19975,14 @@
       <c r="A2" s="8">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" t="s">
         <v>625</v>
       </c>
       <c r="C2" s="8">
         <v>1</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>625</v>
+      <c r="D2" t="s">
+        <v>633</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>614</v>
@@ -19974,14 +19998,14 @@
       <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" t="s">
         <v>626</v>
       </c>
       <c r="C3" s="8">
         <v>1</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>626</v>
+      <c r="D3" t="s">
+        <v>634</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>615</v>
@@ -19997,14 +20021,14 @@
       <c r="A4" s="8">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" t="s">
         <v>627</v>
       </c>
       <c r="C4" s="8">
         <v>1</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>627</v>
+      <c r="D4" t="s">
+        <v>635</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>616</v>
@@ -20020,14 +20044,14 @@
       <c r="A5" s="8">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" t="s">
         <v>628</v>
       </c>
       <c r="C5" s="8">
         <v>1</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>628</v>
+      <c r="D5" t="s">
+        <v>636</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>617</v>
@@ -20043,14 +20067,14 @@
       <c r="A6" s="8">
         <v>4</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" t="s">
         <v>629</v>
       </c>
       <c r="C6" s="8">
         <v>1</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>629</v>
+      <c r="D6" t="s">
+        <v>637</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>618</v>
@@ -20066,14 +20090,14 @@
       <c r="A7" s="8">
         <v>5</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" t="s">
         <v>630</v>
       </c>
       <c r="C7" s="8">
         <v>1</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>630</v>
+      <c r="D7" t="s">
+        <v>638</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>619</v>
@@ -20089,14 +20113,14 @@
       <c r="A8" s="8">
         <v>6</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" t="s">
         <v>631</v>
       </c>
       <c r="C8" s="8">
         <v>1</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>631</v>
+      <c r="D8" t="s">
+        <v>639</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>620</v>
@@ -20112,14 +20136,14 @@
       <c r="A9" s="8">
         <v>7</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" t="s">
         <v>632</v>
       </c>
       <c r="C9" s="8">
         <v>1</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>632</v>
+      <c r="D9" t="s">
+        <v>640</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>621</v>
